--- a/data/trans_orig/P14B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F880FB4-333E-49A2-86DC-575A1730B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02328FE3-6410-49D0-AEF0-CE5289344C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AC09542-9EE3-49EB-8D73-E2CBA32D80AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0F96DE0-5004-41BF-B243-E0A68872532F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -162,508 +162,508 @@
     <t>63,92%</t>
   </si>
   <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
     <t>59,75%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2788551E-9B1B-4DFC-92F8-3281A6385B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0433605A-4677-47F6-9A4A-F34F14A84BD2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1527,7 +1527,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -1539,10 +1539,10 @@
         <v>3926</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -1575,13 +1575,13 @@
         <v>1634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1590,13 +1590,13 @@
         <v>1634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -1679,13 +1679,13 @@
         <v>6250</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1694,13 +1694,13 @@
         <v>9383</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>2182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1730,13 +1730,13 @@
         <v>6420</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1745,13 +1745,13 @@
         <v>8602</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>3160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -1834,13 +1834,13 @@
         <v>5011</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1849,13 +1849,13 @@
         <v>8171</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>1132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1885,13 +1885,13 @@
         <v>6019</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1900,13 +1900,13 @@
         <v>7151</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1974,13 +1974,13 @@
         <v>2104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1989,13 +1989,13 @@
         <v>17077</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2004,13 +2004,13 @@
         <v>19181</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,10 +2025,10 @@
         <v>8327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2040,13 +2040,13 @@
         <v>3170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2055,13 +2055,13 @@
         <v>11497</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2129,13 @@
         <v>14297</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2144,13 +2144,13 @@
         <v>36753</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -2159,13 +2159,13 @@
         <v>51049</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2180,13 @@
         <v>14468</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -2195,13 +2195,13 @@
         <v>24816</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -2210,13 +2210,13 @@
         <v>39285</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDCCD88-5C12-4EA7-96DA-3267FB2E1484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2EA677-72E9-4511-A69D-F61C13F295A0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2311,7 +2311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2424,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2433,7 +2433,7 @@
         <v>2000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2448,13 +2448,13 @@
         <v>2000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2484,7 +2484,7 @@
         <v>1026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2499,10 +2499,10 @@
         <v>3385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2573,7 +2573,7 @@
         <v>2051</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2588,7 +2588,7 @@
         <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2603,13 +2603,13 @@
         <v>3979</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -2639,7 +2639,7 @@
         <v>1879</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -2654,13 +2654,13 @@
         <v>2809</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2728,13 @@
         <v>2586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2743,13 +2743,13 @@
         <v>3861</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2758,13 +2758,13 @@
         <v>6446</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,10 +2779,10 @@
         <v>3958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2794,13 +2794,13 @@
         <v>5725</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2809,13 +2809,13 @@
         <v>9683</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2883,13 +2883,13 @@
         <v>3434</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2898,13 +2898,13 @@
         <v>2151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2913,13 +2913,13 @@
         <v>5585</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>3198</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>159</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02328FE3-6410-49D0-AEF0-CE5289344C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964E8853-A435-4D7B-ACF4-51ED1F7EA6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0F96DE0-5004-41BF-B243-E0A68872532F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE7446B2-18F3-4F7F-8319-E0E01439C41C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,49 +111,49 @@
     <t>72,46%</t>
   </si>
   <si>
-    <t>30,41%</t>
+    <t>32,52%</t>
   </si>
   <si>
     <t>59,91%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>69,59%</t>
+    <t>67,48%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -162,19 +162,25 @@
     <t>63,92%</t>
   </si>
   <si>
+    <t>16,19%</t>
+  </si>
+  <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>12,68%</t>
+    <t>13,24%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
+    <t>83,81%</t>
+  </si>
+  <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>87,32%</t>
+    <t>86,76%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -183,49 +189,49 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>18,39%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>81,61%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -234,43 +240,43 @@
     <t>73,62%</t>
   </si>
   <si>
+    <t>23,46%</t>
+  </si>
+  <si>
     <t>45,43%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>53,33%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
     <t>26,38%</t>
   </si>
   <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>46,67%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>20,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -279,109 +285,103 @@
     <t>20,17%</t>
   </si>
   <si>
-    <t>56,42%</t>
+    <t>61,72%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>43,58%</t>
+    <t>38,28%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población cuya colitis le limita en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -417,10 +417,10 @@
     <t>58,62%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>31,21%</t>
@@ -432,10 +432,10 @@
     <t>41,38%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>39,51%</t>
@@ -447,19 +447,19 @@
     <t>40,28%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>39,97%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>60,49%</t>
@@ -471,19 +471,19 @@
     <t>59,72%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>60,03%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>51,78%</t>
@@ -492,28 +492,28 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>85,53%</t>
+    <t>85,96%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>72,8%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>14,47%</t>
+    <t>14,04%</t>
   </si>
   <si>
     <t>84,43%</t>
@@ -522,16 +522,16 @@
     <t>72,38%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>27,2%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>62,04%</t>
@@ -540,19 +540,19 @@
     <t>29,98%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>37,96%</t>
@@ -561,19 +561,19 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>40,63%</t>
@@ -582,19 +582,19 @@
     <t>40,2%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>40,25%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>59,37%</t>
@@ -603,67 +603,67 @@
     <t>59,8%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>59,75%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0433605A-4677-47F6-9A4A-F34F14A84BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC00AF4-DF53-4ACF-94FD-464BF8F5ADD4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1527,7 +1527,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -1539,10 +1539,10 @@
         <v>3926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -1575,13 +1575,13 @@
         <v>1634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1590,13 +1590,13 @@
         <v>1634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -1679,13 +1679,13 @@
         <v>6250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1694,13 +1694,13 @@
         <v>9383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>2182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1730,13 +1730,13 @@
         <v>6420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1745,13 +1745,13 @@
         <v>8602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1819,10 +1819,10 @@
         <v>3160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -1834,13 +1834,13 @@
         <v>5011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1849,13 +1849,13 @@
         <v>8171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1870,13 @@
         <v>1132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1885,13 +1885,13 @@
         <v>6019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1900,13 +1900,13 @@
         <v>7151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1974,13 +1974,13 @@
         <v>2104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1989,13 +1989,13 @@
         <v>17077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2004,13 +2004,13 @@
         <v>19181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,10 +2025,10 @@
         <v>8327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2040,13 +2040,13 @@
         <v>3170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2294,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2EA677-72E9-4511-A69D-F61C13F295A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF5D1BB-42CB-435F-96E3-647856D77F38}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2871,7 +2871,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
